--- a/tablas/tabla_metodos.xlsx
+++ b/tablas/tabla_metodos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jbustos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbustos\Documents\2023\cdc_imputacion_2023\edi_imp\github_repo\imputacion\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,42 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>n° productos</t>
   </si>
   <si>
-    <t>n° variables</t>
-  </si>
-  <si>
     <t>Método Imputación</t>
   </si>
   <si>
-    <t>regresión</t>
-  </si>
-  <si>
-    <t>razón</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>donantes hotdeck</t>
-  </si>
-  <si>
-    <t>donantes colddeck</t>
-  </si>
-  <si>
-    <t>multivariante</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>otros tipos de imputación</t>
-  </si>
-  <si>
-    <t>xx</t>
+    <t>Hot-deck</t>
+  </si>
+  <si>
+    <t>Vecino más cercano</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Razón</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Cold-deck</t>
+  </si>
+  <si>
+    <t>Imputación fraccionada</t>
+  </si>
+  <si>
+    <t>Imputación por modelos Lasso logit Lasso</t>
   </si>
 </sst>
 </file>
@@ -377,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,103 +384,76 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
